--- a/cn3302_top_bom.xlsx
+++ b/cn3302_top_bom.xlsx
@@ -21,27 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
-    <t xml:space="preserve">Item </t>
-  </si>
-  <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>Mfg part</t>
-  </si>
-  <si>
-    <t>LCSC part#</t>
-  </si>
-  <si>
     <t>Конденсаторы</t>
   </si>
   <si>
@@ -193,13 +172,34 @@
   <si>
     <t xml:space="preserve">
 C21189</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Обозначение элемента</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Описание/номинал</t>
+  </si>
+  <si>
+    <t>Корпус</t>
+  </si>
+  <si>
+    <t>Партномер</t>
+  </si>
+  <si>
+    <t>Партномер LCSC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,8 +352,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +546,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -694,16 +721,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1028,346 +1067,347 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" s="8">
+        <v>1206</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2512</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
-        <v>1206</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
+      <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2512</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="F17" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="G17" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A16:G16"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/cn3302_top_bom.xlsx
+++ b/cn3302_top_bom.xlsx
@@ -561,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -676,6 +676,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -725,22 +740,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1067,7 +1082,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:G16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
